--- a/Docs/depots.xlsx
+++ b/Docs/depots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W0DBQ\w0dbq\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B149EE3-B678-4E59-925F-F60331259D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{601DA2C6-25E6-47DA-BBBB-8060D348FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{3AD9C8AF-77F8-4B03-A942-D1CA1495BBC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AD9C8AF-77F8-4B03-A942-D1CA1495BBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="268">
   <si>
     <t>id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Algona</t>
   </si>
   <si>
-    <t>Louis Railway</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -92,13 +89,763 @@
   </si>
   <si>
     <t>Anamosa</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Atalissa</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Audubon</t>
+  </si>
+  <si>
+    <t>Aurelia</t>
+  </si>
+  <si>
+    <t>Bagley</t>
+  </si>
+  <si>
+    <t>Barnes City</t>
+  </si>
+  <si>
+    <t>Bayard</t>
+  </si>
+  <si>
+    <t>Beaver</t>
+  </si>
+  <si>
+    <t>Belle Plaine</t>
+  </si>
+  <si>
+    <t>Berkley</t>
+  </si>
+  <si>
+    <t>Bettendorf</t>
+  </si>
+  <si>
+    <t>Bloomfield</t>
+  </si>
+  <si>
+    <t>Bonaparte</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>Booneville</t>
+  </si>
+  <si>
+    <t>Bouton</t>
+  </si>
+  <si>
+    <t>Breda</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>Bussey</t>
+  </si>
+  <si>
+    <t>Calamus</t>
+  </si>
+  <si>
+    <t>Calmar</t>
+  </si>
+  <si>
+    <t>Calumet</t>
+  </si>
+  <si>
+    <t>Camanche</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Carnforth</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>Cartersville</t>
+  </si>
+  <si>
+    <t>Cedar Falls</t>
+  </si>
+  <si>
+    <t>Cedar Rapids</t>
+  </si>
+  <si>
+    <t>Center Junction</t>
+  </si>
+  <si>
+    <t>Centerville</t>
+  </si>
+  <si>
+    <t>Central City</t>
+  </si>
+  <si>
+    <t>Chariton</t>
+  </si>
+  <si>
+    <t>Charles City</t>
+  </si>
+  <si>
+    <t>Charter Oak</t>
+  </si>
+  <si>
+    <t>Chatsworth</t>
+  </si>
+  <si>
+    <t>Cherokee</t>
+  </si>
+  <si>
+    <t>still stands.</t>
+  </si>
+  <si>
+    <t>Clarinda</t>
+  </si>
+  <si>
+    <t>Clarion</t>
+  </si>
+  <si>
+    <t>Clarksville</t>
+  </si>
+  <si>
+    <t>Clear Lake</t>
+  </si>
+  <si>
+    <t>Cleghorn</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Clive</t>
+  </si>
+  <si>
+    <t>Conesville</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Corydon</t>
+  </si>
+  <si>
+    <t>Council Bluffs</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>Dallas Center</t>
+  </si>
+  <si>
+    <t>Davenport</t>
+  </si>
+  <si>
+    <t>Dawson</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>Decorah</t>
+  </si>
+  <si>
+    <t>Deep River</t>
+  </si>
+  <si>
+    <t>Delmar</t>
+  </si>
+  <si>
+    <t>Denison</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>Dickens</t>
+  </si>
+  <si>
+    <t>Dike</t>
+  </si>
+  <si>
+    <t>Donahue</t>
+  </si>
+  <si>
+    <t>Donnellson</t>
+  </si>
+  <si>
+    <t>Dows</t>
+  </si>
+  <si>
+    <t>Dubuque</t>
+  </si>
+  <si>
+    <t>Dunkerton</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Earlham</t>
+  </si>
+  <si>
+    <t>Eldon</t>
+  </si>
+  <si>
+    <t>Eldora</t>
+  </si>
+  <si>
+    <t>Elkader</t>
+  </si>
+  <si>
+    <t>Ellsworth</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>museum.</t>
+  </si>
+  <si>
+    <t>Elmira</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>Farmersville</t>
+  </si>
+  <si>
+    <t>Farmington</t>
+  </si>
+  <si>
+    <t>Farragut</t>
+  </si>
+  <si>
+    <t>Fayette</t>
+  </si>
+  <si>
+    <t>Fontanelle</t>
+  </si>
+  <si>
+    <t>Forest City</t>
+  </si>
+  <si>
+    <t>Fort Atkinson</t>
+  </si>
+  <si>
+    <t>Fort Madison</t>
+  </si>
+  <si>
+    <t>Fostoria</t>
+  </si>
+  <si>
+    <t>Fredericksburg</t>
+  </si>
+  <si>
+    <t>Gaynor</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Glenwood</t>
+  </si>
+  <si>
+    <t>Gowrie</t>
+  </si>
+  <si>
+    <t>Grafton</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Greenfield</t>
+  </si>
+  <si>
+    <t>Grinnell</t>
+  </si>
+  <si>
+    <t>Guttenburg</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Harlan</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>Haverhill</t>
+  </si>
+  <si>
+    <t>Hedrick</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Hopkinton</t>
+  </si>
+  <si>
+    <t>Hornick</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Humboldt</t>
+  </si>
+  <si>
+    <t>Humeston</t>
+  </si>
+  <si>
+    <t>Ida Grove</t>
+  </si>
+  <si>
+    <t>Independence</t>
+  </si>
+  <si>
+    <t>Inwood</t>
+  </si>
+  <si>
+    <t>Rock Valley</t>
+  </si>
+  <si>
+    <t>Ionia</t>
+  </si>
+  <si>
+    <t>Iowa City</t>
+  </si>
+  <si>
+    <t>Iowa Falls</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Kalona</t>
+  </si>
+  <si>
+    <t>Keokuk</t>
+  </si>
+  <si>
+    <t>Knierim</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>Lake City</t>
+  </si>
+  <si>
+    <t>Lake Park</t>
+  </si>
+  <si>
+    <t>Lake View</t>
+  </si>
+  <si>
+    <t>Lamoni</t>
+  </si>
+  <si>
+    <t>La Motte</t>
+  </si>
+  <si>
+    <t>La Porte City</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Lehigh</t>
+  </si>
+  <si>
+    <t>Lenox</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Levertt</t>
+  </si>
+  <si>
+    <t>Lidderdale</t>
+  </si>
+  <si>
+    <t>Lone Rock</t>
+  </si>
+  <si>
+    <t>Lone Tree</t>
+  </si>
+  <si>
+    <t>Long Grove</t>
+  </si>
+  <si>
+    <t>Lowden</t>
+  </si>
+  <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>Maclay</t>
+  </si>
+  <si>
+    <t>Mallard</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Manly</t>
+  </si>
+  <si>
+    <t>Manson</t>
+  </si>
+  <si>
+    <t>Marengo</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Marshalltown</t>
+  </si>
+  <si>
+    <t>Martelle</t>
+  </si>
+  <si>
+    <t>Mason City</t>
+  </si>
+  <si>
+    <t>McPaul</t>
+  </si>
+  <si>
+    <t>Meriden</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>Minburn</t>
+  </si>
+  <si>
+    <t>Moorehead</t>
+  </si>
+  <si>
+    <t>Morning Sun</t>
+  </si>
+  <si>
+    <t>Moravia</t>
+  </si>
+  <si>
+    <t>Mt. Ayr</t>
+  </si>
+  <si>
+    <t>Mt. Pleasant</t>
+  </si>
+  <si>
+    <t>Napier</t>
+  </si>
+  <si>
+    <t>Nashua</t>
+  </si>
+  <si>
+    <t>New Albin</t>
+  </si>
+  <si>
+    <t>New Market</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Oelwein</t>
+  </si>
+  <si>
+    <t>Ogden</t>
+  </si>
+  <si>
+    <t>Olin</t>
+  </si>
+  <si>
+    <t>Onawa</t>
+  </si>
+  <si>
+    <t>Osage</t>
+  </si>
+  <si>
+    <t>Osborne</t>
+  </si>
+  <si>
+    <t>Oskaloosa</t>
+  </si>
+  <si>
+    <t>Ottumwa</t>
+  </si>
+  <si>
+    <t>Owasa</t>
+  </si>
+  <si>
+    <t>Panora</t>
+  </si>
+  <si>
+    <t>Parkersburg</t>
+  </si>
+  <si>
+    <t>Pella</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Pilot Grove</t>
+  </si>
+  <si>
+    <t>Pisgah</t>
+  </si>
+  <si>
+    <t>Plainfield</t>
+  </si>
+  <si>
+    <t>Pomery</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Primghar</t>
+  </si>
+  <si>
+    <t>Pulaski</t>
+  </si>
+  <si>
+    <t>Quarry</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>Redfield</t>
+  </si>
+  <si>
+    <t>Reinbeck</t>
+  </si>
+  <si>
+    <t>Riceville</t>
+  </si>
+  <si>
+    <t>Ricketts</t>
+  </si>
+  <si>
+    <t>Rockford</t>
+  </si>
+  <si>
+    <t>Rock Rapids</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>Sac City</t>
+  </si>
+  <si>
+    <t>Saint Ansgor</t>
+  </si>
+  <si>
+    <t>Scotch Grove</t>
+  </si>
+  <si>
+    <t>Sergeant Bluff</t>
+  </si>
+  <si>
+    <t>Sheldahl</t>
+  </si>
+  <si>
+    <t>Sheldon</t>
+  </si>
+  <si>
+    <t>Shenandoah</t>
+  </si>
+  <si>
+    <t>Sioux Center</t>
+  </si>
+  <si>
+    <t>Sioux City</t>
+  </si>
+  <si>
+    <t>Sioux Rapids</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Stacyville</t>
+  </si>
+  <si>
+    <t>Stanhope</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Storm Lake</t>
+  </si>
+  <si>
+    <t>Story City</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Sulfur Springs</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Titonka</t>
+  </si>
+  <si>
+    <t>Ticonic</t>
+  </si>
+  <si>
+    <t>Tingley</t>
+  </si>
+  <si>
+    <t>Traer</t>
+  </si>
+  <si>
+    <t>Triboji Beach</t>
+  </si>
+  <si>
+    <t>Turin</t>
+  </si>
+  <si>
+    <t>Ute</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Villisca</t>
+  </si>
+  <si>
+    <t>Vinton</t>
+  </si>
+  <si>
+    <t>Volga</t>
+  </si>
+  <si>
+    <t>Wadena</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Wall Lake</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>Waucoma</t>
+  </si>
+  <si>
+    <t>Waverly</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Webster City</t>
+  </si>
+  <si>
+    <t>Weldon</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>West Chester</t>
+  </si>
+  <si>
+    <t>West Des Moines</t>
+  </si>
+  <si>
+    <t>West Liberty</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Wilton</t>
+  </si>
+  <si>
+    <t>Winterset</t>
+  </si>
+  <si>
+    <t>Wiota</t>
+  </si>
+  <si>
+    <t>Woodbine</t>
+  </si>
+  <si>
+    <t>Woodward</t>
+  </si>
+  <si>
+    <t>Wyman</t>
+  </si>
+  <si>
+    <t>Yarmouth</t>
+  </si>
+  <si>
+    <t>Zearing</t>
+  </si>
+  <si>
+    <t>Zwingle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +865,10 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,13 +891,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,8 +902,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,18 +1219,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED635E1-9B12-4351-8551-D66D9621B34A}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="56.25" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="22.28515625" style="3"/>
+    <col min="1" max="16384" width="22.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,120 +1247,1380 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>42.555143999999999</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>-93.052413999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>41.615394999999999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>-94.032661000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>42.827888999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-96.561153000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>41.025995999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-92.798508999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>43.069383999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>-94.226156000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>42.986854000000001</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-96.007355000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>41.795292000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>-91.866787000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>42.024290999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>-93.618178999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B14" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="56.25" customHeight="1">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B32" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B40" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B52" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B53" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B54" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B55" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B56" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B58" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B59" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B60" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B63" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B64" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B65" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B66" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B67" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B68" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B69" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B70" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B71" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B72" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B73" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B74" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B75" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B76" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B77" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B78" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B79" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B80" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B81" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B82" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B83" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B84" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B85" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B86" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B87" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B88" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B89" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B91" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B92" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B93" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B94" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B95" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B96" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B97" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B98" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B99" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B100" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B101" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B102" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B103" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B104" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B105" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B106" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B107" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B108" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B109" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B110" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B111" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B112" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B113" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B114" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B115" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B116" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B117" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B118" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B119" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B120" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B121" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B122" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B123" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B124" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B125" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B126" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B127" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B128" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B129" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B130" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B131" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B132" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B133" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B134" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B135" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B136" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B137" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B138" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B139" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B140" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B141" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B142" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B143" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B144" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B145" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B146" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B147" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B148" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B149" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B150" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B151" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B152" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B153" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B154" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B155" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B156" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B157" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B158" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B159" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B160" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B161" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B162" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B163" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B164" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B165" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B166" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B167" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B168" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B169" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B170" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B171" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B172" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B173" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B174" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B175" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B176" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B177" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B178" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B179" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B180" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B181" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B182" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B183" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B184" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B185" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B186" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B187" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B188" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B189" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B190" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B191" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B192" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B193" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B194" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B195" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B196" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B197" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B198" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B199" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B200" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B201" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B202" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B203" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B204" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B205" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B206" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B207" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B208" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B209" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B210" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B211" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B212" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B213" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B214" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B215" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B216" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B217" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B218" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B219" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B220" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B221" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B222" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B223" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B224" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B225" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B226" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B227" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B228" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B229" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B230" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B231" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B232" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B233" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B234" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B235" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B236" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B237" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B238" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B239" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B240" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B241" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B242" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B243" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B244" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B245" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B246" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B247" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B248" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B249" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B250" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B251" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B252" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B253" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B254" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B255" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B256" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B257" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B258" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B259" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B260" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B261" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B262" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B263" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B264" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B265" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" ht="56.25" customHeight="1">
+      <c r="B266" s="4" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
